--- a/Results/Errors/PolySVM_samples_error.xlsx
+++ b/Results/Errors/PolySVM_samples_error.xlsx
@@ -475,7 +475,7 @@
         <v>89</v>
       </c>
       <c r="B2" t="n">
-        <v>0.49138</v>
+        <v>0.39298</v>
       </c>
       <c r="C2" t="n">
         <v>18</v>
@@ -501,7 +501,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5271</v>
+        <v>0.43201</v>
       </c>
       <c r="C3" t="n">
         <v>24</v>
@@ -524,19 +524,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B4" t="n">
-        <v>0.56635</v>
+        <v>0.47923</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E4" t="n">
-        <v>0.025</v>
+        <v>0.01</v>
       </c>
       <c r="F4" t="n">
         <v>0.15</v>
@@ -545,21 +545,21 @@
         <v>-2</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.2</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>0.57087</v>
+        <v>0.51717</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
@@ -571,18 +571,18 @@
         <v>-2</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.53</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B6" t="n">
-        <v>0.60176</v>
+        <v>0.55308</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -597,18 +597,18 @@
         <v>-2</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.2</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B7" t="n">
-        <v>0.63096</v>
+        <v>0.57878</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>500</v>
@@ -623,15 +623,15 @@
         <v>-2</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.53</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n">
-        <v>0.65177</v>
+        <v>0.57878</v>
       </c>
       <c r="C8" t="n">
         <v>14</v>
@@ -649,24 +649,24 @@
         <v>-2</v>
       </c>
       <c r="H8" t="n">
-        <v>-17.32</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B9" t="n">
-        <v>0.65177</v>
+        <v>0.58274</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>500</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
       <c r="F9" t="n">
         <v>0.15</v>
@@ -675,18 +675,18 @@
         <v>-2</v>
       </c>
       <c r="H9" t="n">
-        <v>-15</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.69315</v>
+        <v>0.61808</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>500</v>
@@ -701,15 +701,15 @@
         <v>-2</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.53</v>
+        <v>-22.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B11" t="n">
-        <v>0.69315</v>
+        <v>0.61808</v>
       </c>
       <c r="C11" t="n">
         <v>16</v>
@@ -727,15 +727,15 @@
         <v>-2</v>
       </c>
       <c r="H11" t="n">
-        <v>-22.5</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B12" t="n">
-        <v>0.69315</v>
+        <v>0.63915</v>
       </c>
       <c r="C12" t="n">
         <v>18</v>
@@ -753,7 +753,7 @@
         <v>-2</v>
       </c>
       <c r="H12" t="n">
-        <v>9.67</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="13">
@@ -761,7 +761,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="n">
-        <v>0.69315</v>
+        <v>0.63915</v>
       </c>
       <c r="C13" t="n">
         <v>18</v>
@@ -784,13 +784,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B14" t="n">
-        <v>0.69315</v>
+        <v>0.63915</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
         <v>500</v>
@@ -802,18 +802,18 @@
         <v>0.15</v>
       </c>
       <c r="G14" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="H14" t="n">
-        <v>59.85</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.69315</v>
+        <v>0.75023</v>
       </c>
       <c r="C15" t="n">
         <v>18</v>
@@ -831,15 +831,15 @@
         <v>-2</v>
       </c>
       <c r="H15" t="n">
-        <v>-31.7</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.69315</v>
+        <v>0.75362</v>
       </c>
       <c r="C16" t="n">
         <v>16</v>
@@ -854,10 +854,10 @@
         <v>0.15</v>
       </c>
       <c r="G16" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="H16" t="n">
-        <v>-12.53</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="17">
@@ -865,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>0.70575</v>
+        <v>0.77826</v>
       </c>
       <c r="C17" t="n">
         <v>20</v>
@@ -891,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.83839</v>
+        <v>0.81728</v>
       </c>
       <c r="C18" t="n">
         <v>18</v>
@@ -917,7 +917,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.83839</v>
+        <v>0.81728</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
@@ -943,7 +943,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8488599999999999</v>
+        <v>0.83111</v>
       </c>
       <c r="C20" t="n">
         <v>22</v>
@@ -969,7 +969,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8964299999999999</v>
+        <v>0.8944</v>
       </c>
       <c r="C21" t="n">
         <v>14</v>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>0.92011</v>
+        <v>0.92613</v>
       </c>
       <c r="C22" t="n">
         <v>22</v>
@@ -1021,7 +1021,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="n">
-        <v>0.97084</v>
+        <v>0.99439</v>
       </c>
       <c r="C23" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>1.16177</v>
+        <v>1.25717</v>
       </c>
       <c r="C24" t="n">
         <v>14</v>
@@ -1073,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>1.16177</v>
+        <v>1.25717</v>
       </c>
       <c r="C25" t="n">
         <v>14</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>2.01789</v>
+        <v>2.46799</v>
       </c>
       <c r="C26" t="n">
         <v>22</v>
@@ -1125,7 +1125,7 @@
         <v>68</v>
       </c>
       <c r="B27" t="n">
-        <v>2.12385</v>
+        <v>2.61749</v>
       </c>
       <c r="C27" t="n">
         <v>16</v>
@@ -1151,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>2.19357</v>
+        <v>2.71563</v>
       </c>
       <c r="C28" t="n">
         <v>24</v>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>2.67748</v>
+        <v>3.36327</v>
       </c>
       <c r="C29" t="n">
         <v>30</v>
@@ -1203,7 +1203,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="n">
-        <v>3.61317</v>
+        <v>4.70084</v>
       </c>
       <c r="C30" t="n">
         <v>10</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>3.90798</v>
+        <v>5.33672</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>

--- a/Results/Errors/PolySVM_samples_error.xlsx
+++ b/Results/Errors/PolySVM_samples_error.xlsx
@@ -475,7 +475,7 @@
         <v>89</v>
       </c>
       <c r="B2" t="n">
-        <v>0.39298</v>
+        <v>0.5007</v>
       </c>
       <c r="C2" t="n">
         <v>18</v>
@@ -498,19 +498,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B3" t="n">
-        <v>0.43201</v>
+        <v>0.53493</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>500</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
       <c r="F3" t="n">
         <v>0.15</v>
@@ -519,21 +519,21 @@
         <v>-2</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.08</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="n">
-        <v>0.47923</v>
+        <v>0.53938</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -545,21 +545,21 @@
         <v>-2</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.53</v>
+        <v>-21.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B5" t="n">
-        <v>0.51717</v>
+        <v>0.587</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
@@ -571,18 +571,18 @@
         <v>-2</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.2</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>0.55308</v>
+        <v>0.62076</v>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -597,18 +597,18 @@
         <v>-2</v>
       </c>
       <c r="H6" t="n">
-        <v>-12.53</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B7" t="n">
-        <v>0.57878</v>
+        <v>0.65277</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>500</v>
@@ -623,18 +623,18 @@
         <v>-2</v>
       </c>
       <c r="H7" t="n">
-        <v>-17.32</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" t="n">
-        <v>0.57878</v>
+        <v>0.65855</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
         <v>500</v>
@@ -649,15 +649,15 @@
         <v>-2</v>
       </c>
       <c r="H8" t="n">
-        <v>-15</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B9" t="n">
-        <v>0.58274</v>
+        <v>0.65855</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -666,7 +666,7 @@
         <v>500</v>
       </c>
       <c r="E9" t="n">
-        <v>0.025</v>
+        <v>0.01</v>
       </c>
       <c r="F9" t="n">
         <v>0.15</v>
@@ -675,18 +675,18 @@
         <v>-2</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.2</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B10" t="n">
-        <v>0.61808</v>
+        <v>0.65855</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>500</v>
@@ -701,18 +701,18 @@
         <v>-2</v>
       </c>
       <c r="H10" t="n">
-        <v>-22.5</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" t="n">
-        <v>0.61808</v>
+        <v>0.67564</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
         <v>500</v>
@@ -727,18 +727,18 @@
         <v>-2</v>
       </c>
       <c r="H11" t="n">
-        <v>-12.53</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>0.63915</v>
+        <v>0.67564</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
         <v>500</v>
@@ -753,18 +753,18 @@
         <v>-2</v>
       </c>
       <c r="H12" t="n">
-        <v>-12.53</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B13" t="n">
-        <v>0.63915</v>
+        <v>0.67615</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -779,18 +779,18 @@
         <v>-2</v>
       </c>
       <c r="H13" t="n">
-        <v>-25</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.63915</v>
+        <v>0.67615</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
         <v>500</v>
@@ -805,18 +805,18 @@
         <v>-2</v>
       </c>
       <c r="H14" t="n">
-        <v>-31.7</v>
+        <v>-22.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.75023</v>
+        <v>0.70748</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -828,10 +828,10 @@
         <v>0.15</v>
       </c>
       <c r="G15" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="H15" t="n">
-        <v>9.67</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="16">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.75362</v>
+        <v>0.72633</v>
       </c>
       <c r="C16" t="n">
         <v>16</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>0.77826</v>
+        <v>0.72898</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
         <v>500</v>
@@ -880,10 +880,10 @@
         <v>0.15</v>
       </c>
       <c r="G17" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="H17" t="n">
-        <v>35.9</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="18">
@@ -891,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.81728</v>
+        <v>0.88119</v>
       </c>
       <c r="C18" t="n">
         <v>18</v>
@@ -917,7 +917,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.81728</v>
+        <v>0.88119</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
@@ -943,7 +943,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>0.83111</v>
+        <v>0.89269</v>
       </c>
       <c r="C20" t="n">
         <v>22</v>
@@ -969,7 +969,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8944</v>
+        <v>0.94487</v>
       </c>
       <c r="C21" t="n">
         <v>14</v>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>0.92613</v>
+        <v>0.9708</v>
       </c>
       <c r="C22" t="n">
         <v>22</v>
@@ -1021,7 +1021,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="n">
-        <v>0.99439</v>
+        <v>1.02627</v>
       </c>
       <c r="C23" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>1.25717</v>
+        <v>1.24021</v>
       </c>
       <c r="C24" t="n">
         <v>14</v>
@@ -1073,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>1.25717</v>
+        <v>1.24021</v>
       </c>
       <c r="C25" t="n">
         <v>14</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>2.46799</v>
+        <v>2.18551</v>
       </c>
       <c r="C26" t="n">
         <v>22</v>
@@ -1125,7 +1125,7 @@
         <v>68</v>
       </c>
       <c r="B27" t="n">
-        <v>2.61749</v>
+        <v>2.30174</v>
       </c>
       <c r="C27" t="n">
         <v>16</v>
@@ -1151,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>2.71563</v>
+        <v>2.37813</v>
       </c>
       <c r="C28" t="n">
         <v>24</v>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>3.36327</v>
+        <v>2.86487</v>
       </c>
       <c r="C29" t="n">
         <v>30</v>
@@ -1203,7 +1203,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="n">
-        <v>4.70084</v>
+        <v>3.9281</v>
       </c>
       <c r="C30" t="n">
         <v>10</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>5.33672</v>
+        <v>4.1298</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>

--- a/Results/Errors/PolySVM_samples_error.xlsx
+++ b/Results/Errors/PolySVM_samples_error.xlsx
@@ -475,7 +475,7 @@
         <v>89</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5007</v>
+        <v>0.2818</v>
       </c>
       <c r="C2" t="n">
         <v>18</v>
@@ -498,19 +498,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B3" t="n">
-        <v>0.53493</v>
+        <v>0.329</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>500</v>
       </c>
       <c r="E3" t="n">
-        <v>0.025</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
         <v>0.15</v>
@@ -519,21 +519,21 @@
         <v>-2</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.2</v>
+        <v>-21.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" t="n">
-        <v>0.53938</v>
+        <v>0.39312</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -545,21 +545,21 @@
         <v>-2</v>
       </c>
       <c r="H4" t="n">
-        <v>-21.08</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>0.587</v>
+        <v>0.43654</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
@@ -571,18 +571,18 @@
         <v>-2</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.53</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B6" t="n">
-        <v>0.62076</v>
+        <v>0.48905</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -597,24 +597,24 @@
         <v>-2</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.2</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B7" t="n">
-        <v>0.65277</v>
+        <v>0.5220399999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>500</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
       <c r="F7" t="n">
         <v>0.15</v>
@@ -623,18 +623,18 @@
         <v>-2</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.53</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>0.65855</v>
+        <v>0.52684</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>500</v>
@@ -649,18 +649,18 @@
         <v>-2</v>
       </c>
       <c r="H8" t="n">
-        <v>-25</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>0.65855</v>
+        <v>0.52684</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>500</v>
@@ -675,18 +675,18 @@
         <v>-2</v>
       </c>
       <c r="H9" t="n">
-        <v>-31.7</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.65855</v>
+        <v>0.58529</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>500</v>
@@ -701,18 +701,18 @@
         <v>-2</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.53</v>
+        <v>-22.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B11" t="n">
-        <v>0.67564</v>
+        <v>0.58529</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
         <v>500</v>
@@ -727,18 +727,18 @@
         <v>-2</v>
       </c>
       <c r="H11" t="n">
-        <v>-17.32</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B12" t="n">
-        <v>0.67564</v>
+        <v>0.61709</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>500</v>
@@ -753,18 +753,18 @@
         <v>-2</v>
       </c>
       <c r="H12" t="n">
-        <v>-15</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B13" t="n">
-        <v>0.67615</v>
+        <v>0.61709</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -779,18 +779,18 @@
         <v>-2</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.53</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B14" t="n">
-        <v>0.67615</v>
+        <v>0.61709</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
         <v>500</v>
@@ -805,18 +805,18 @@
         <v>-2</v>
       </c>
       <c r="H14" t="n">
-        <v>-22.5</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.70748</v>
+        <v>0.77546</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -828,10 +828,10 @@
         <v>0.15</v>
       </c>
       <c r="G15" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="H15" t="n">
-        <v>35.9</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="16">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0.72633</v>
+        <v>0.78086</v>
       </c>
       <c r="C16" t="n">
         <v>16</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>0.72898</v>
+        <v>0.82043</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>500</v>
@@ -880,10 +880,10 @@
         <v>0.15</v>
       </c>
       <c r="G17" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="H17" t="n">
-        <v>9.67</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="18">
@@ -891,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.88119</v>
+        <v>0.8997000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>18</v>
@@ -917,7 +917,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.88119</v>
+        <v>0.8997000000000001</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
@@ -943,7 +943,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>0.89269</v>
+        <v>0.92227</v>
       </c>
       <c r="C20" t="n">
         <v>22</v>
@@ -969,7 +969,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="n">
-        <v>0.94487</v>
+        <v>1.02575</v>
       </c>
       <c r="C21" t="n">
         <v>14</v>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9708</v>
+        <v>1.0777</v>
       </c>
       <c r="C22" t="n">
         <v>22</v>
@@ -1021,7 +1021,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="n">
-        <v>1.02627</v>
+        <v>1.20749</v>
       </c>
       <c r="C23" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>1.24021</v>
+        <v>1.65965</v>
       </c>
       <c r="C24" t="n">
         <v>14</v>
@@ -1073,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>1.24021</v>
+        <v>1.65965</v>
       </c>
       <c r="C25" t="n">
         <v>14</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>2.18551</v>
+        <v>3.71687</v>
       </c>
       <c r="C26" t="n">
         <v>22</v>
@@ -1125,7 +1125,7 @@
         <v>68</v>
       </c>
       <c r="B27" t="n">
-        <v>2.30174</v>
+        <v>3.96808</v>
       </c>
       <c r="C27" t="n">
         <v>16</v>
@@ -1151,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>2.37813</v>
+        <v>4.13161</v>
       </c>
       <c r="C28" t="n">
         <v>24</v>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>2.86487</v>
+        <v>5.2352</v>
       </c>
       <c r="C29" t="n">
         <v>30</v>
@@ -1203,7 +1203,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="n">
-        <v>3.9281</v>
+        <v>7.32287</v>
       </c>
       <c r="C30" t="n">
         <v>10</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>4.1298</v>
+        <v>15.45284</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
